--- a/ADCVD_SCRIPT/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_SCRIPT/input_data/datapool/adcvd_datapool.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2A35161-04F8-4AF2-AA47-757D2DFEF6C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A316B2-160A-4809-949D-1B2F0EF67CEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1BF9E-56F6-4D1C-9634-CCEBEDE2F341}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O2:O8"/>
+      <selection activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ADCVD_SCRIPT/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_SCRIPT/input_data/datapool/adcvd_datapool.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A316B2-160A-4809-949D-1B2F0EF67CEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF116C7-BF3A-4386-ADA1-9FC09A08A583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,17 +28,22 @@
     <definedName name="Yes_No">#REF!</definedName>
     <definedName name="YesOrNo">dropdowns!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -410,6 +415,15 @@
   </si>
   <si>
     <t>FR_Published_Date</t>
+  </si>
+  <si>
+    <t>1/5/2019</t>
+  </si>
+  <si>
+    <t>Test_Automation</t>
+  </si>
+  <si>
+    <t>This is just a Test</t>
   </si>
 </sst>
 </file>
@@ -767,7 +781,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,7 +793,9 @@
     <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -853,10 +869,10 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -1285,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1382,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1401,7 +1417,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1434,7 +1450,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1465,7 +1481,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1496,7 +1512,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1533,7 +1549,7 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1561,10 +1577,10 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ADCVD_SCRIPT/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_SCRIPT/input_data/datapool/adcvd_datapool.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF116C7-BF3A-4386-ADA1-9FC09A08A583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA162BDC-0A82-4554-97E7-9B9F8C464CD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1BF9E-56F6-4D1C-9634-CCEBEDE2F341}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O2" sqref="O2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1580,7 +1580,7 @@
         <v>124</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ADCVD_SCRIPT/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_SCRIPT/input_data/datapool/adcvd_datapool.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA162BDC-0A82-4554-97E7-9B9F8C464CD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C130A6-263C-4709-9762-3489C9ECF315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1382,7 +1382,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1450,7 +1450,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1481,7 +1481,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1512,7 +1512,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">

--- a/ADCVD_SCRIPT/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_SCRIPT/input_data/datapool/adcvd_datapool.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C130A6-263C-4709-9762-3489C9ECF315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D40E904-590B-436C-A3F6-FE40280ECD4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19005" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -780,25 +780,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -842,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -911,47 +910,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1BF9E-56F6-4D1C-9634-CCEBEDE2F341}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1142,7 +1140,7 @@
         <v>56</v>
       </c>
       <c r="AF2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1170,20 +1168,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1203,7 +1201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1220,7 +1218,7 @@
         <v>64</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1245,15 +1243,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1284,7 +1282,7 @@
         <v>107</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1301,13 +1299,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1382,10 +1380,10 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1417,10 +1415,10 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1450,10 +1448,10 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1481,10 +1479,10 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1512,10 +1510,10 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1549,10 +1547,10 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1580,7 +1578,7 @@
         <v>124</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1608,12 +1606,12 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1636,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1682,7 +1680,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>77</v>
       </c>
@@ -1690,22 +1688,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="6" t="s">
         <v>85</v>
       </c>
